--- a/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_006/frequency_features.xlsx
+++ b/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_006/frequency_features.xlsx
@@ -535,37 +535,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>118.7138136426699</v>
+        <v>33.21654850683567</v>
       </c>
       <c r="C2" t="n">
-        <v>601.8652443255088</v>
+        <v>54.05588276815346</v>
       </c>
       <c r="D2" t="n">
-        <v>2.329640167562325e-06</v>
+        <v>6.142468338368836e-08</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0004649336330642492</v>
+        <v>3.361847299494685e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5030246340791097</v>
+        <v>-0.4678387113638827</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5914821021163189</v>
+        <v>0.1370481410199808</v>
       </c>
       <c r="K2" t="n">
-        <v>1.72329740716165</v>
+        <v>-0.2478391336286939</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.05327587303807</v>
+        <v>-0.7221584046532077</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -581,16 +581,16 @@
         <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q2" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R2" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S2" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -598,37 +598,37 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>388.98902368831</v>
+        <v>86.04308305569522</v>
       </c>
       <c r="C3" t="n">
-        <v>606.355485829201</v>
+        <v>98.98775175502749</v>
       </c>
       <c r="D3" t="n">
-        <v>1.525978171684178e-06</v>
+        <v>3.573673113269621e-08</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0005002763792821415</v>
+        <v>5.480563846270695e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>22.4</v>
+        <v>3.8</v>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.648258574950466</v>
+        <v>-1.211874409235143</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3847190285859547</v>
+        <v>0.09621849389677493</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.4931781050285061</v>
+        <v>-1.047920899301038</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.218699278712759</v>
+        <v>-1.454280984379956</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -644,16 +644,16 @@
         <v>6</v>
       </c>
       <c r="P3" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q3" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R3" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S3" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -661,37 +661,37 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>163.6207953722323</v>
+        <v>35.92506390952818</v>
       </c>
       <c r="C4" t="n">
-        <v>369.8192254563597</v>
+        <v>73.03399021648605</v>
       </c>
       <c r="D4" t="n">
-        <v>1.041574547538143e-06</v>
+        <v>1.132317421767673e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0002994665491145176</v>
+        <v>0.0001032371088739086</v>
       </c>
       <c r="F4" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.693308454967086</v>
+        <v>-0.5059868156271572</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3048961830865556</v>
+        <v>0.1832059450852069</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4561154598129855</v>
+        <v>-0.1587137057060944</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.117998120030279</v>
+        <v>-0.9580886102731855</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -707,54 +707,54 @@
         <v>6</v>
       </c>
       <c r="P4" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q4" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R4" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S4" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0423728813559322</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>114.44692456593</v>
+        <v>31.39470068244982</v>
       </c>
       <c r="C5" t="n">
-        <v>777.0243033181742</v>
+        <v>79.13149601270501</v>
       </c>
       <c r="D5" t="n">
-        <v>2.855251467113851e-06</v>
+        <v>2.741386127284775e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001998988636097564</v>
+        <v>0.0001862744533239909</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3985221105127028</v>
+        <v>-0.4421788828514059</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9306581700448444</v>
+        <v>0.3366360491250389</v>
       </c>
       <c r="K5" t="n">
-        <v>2.370850803843852</v>
+        <v>0.1959578501700321</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.680791940739318</v>
+        <v>-0.9517333032234878</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -770,16 +770,16 @@
         <v>6</v>
       </c>
       <c r="P5" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q5" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R5" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S5" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -787,37 +787,37 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>229.7721026264826</v>
+        <v>55.95851450679316</v>
       </c>
       <c r="C6" t="n">
-        <v>675.2777182803544</v>
+        <v>79.93163048926748</v>
       </c>
       <c r="D6" t="n">
-        <v>1.722749492799676e-06</v>
+        <v>3.654460873379866e-07</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0001025900206568323</v>
+        <v>0.0001208477152353306</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9736106043495025</v>
+        <v>0.788148091644974</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4647209554303458</v>
+        <v>0.2346348955955837</v>
       </c>
       <c r="K6" t="n">
-        <v>1.985107879579697</v>
+        <v>1.299680319160524</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.3266928825679736</v>
+        <v>0.4262935751367883</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -833,16 +833,16 @@
         <v>6</v>
       </c>
       <c r="P6" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q6" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R6" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S6" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -850,37 +850,37 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>97.19082963331502</v>
+        <v>16.35651692273962</v>
       </c>
       <c r="C7" t="n">
-        <v>525.9225018970293</v>
+        <v>40.73469475042061</v>
       </c>
       <c r="D7" t="n">
-        <v>1.978132590716116e-08</v>
+        <v>1.214949665825065e-07</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0001109435444894449</v>
+        <v>5.188097563877048e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4118255492937077</v>
+        <v>-0.2303734777850651</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5073546224066675</v>
+        <v>0.1286077099336416</v>
       </c>
       <c r="K7" t="n">
-        <v>1.126696094330454</v>
+        <v>0.04402601960504387</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.073621768817772</v>
+        <v>-0.4759411391997836</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -896,16 +896,16 @@
         <v>6</v>
       </c>
       <c r="P7" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q7" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R7" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S7" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
@@ -913,37 +913,37 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>157.0410360682563</v>
+        <v>65.61529368802709</v>
       </c>
       <c r="C8" t="n">
-        <v>786.1455991735354</v>
+        <v>78.68854560157064</v>
       </c>
       <c r="D8" t="n">
-        <v>4.15516485437424e-07</v>
+        <v>1.358572359132435e-07</v>
       </c>
       <c r="E8" t="n">
-        <v>5.287626886011825e-05</v>
+        <v>7.350250559300351e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.6654281189332897</v>
+        <v>-0.9241590660285508</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8035541435555152</v>
+        <v>0.1132919587797701</v>
       </c>
       <c r="K8" t="n">
-        <v>2.132181931427554</v>
+        <v>-0.6631698239647397</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.284828354834989</v>
+        <v>-1.100333272503558</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -959,16 +959,16 @@
         <v>6</v>
       </c>
       <c r="P8" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q8" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R8" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S8" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -976,37 +976,37 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>155.9698412664623</v>
+        <v>29.88556916880569</v>
       </c>
       <c r="C9" t="n">
-        <v>497.1640984782573</v>
+        <v>52.06329857516915</v>
       </c>
       <c r="D9" t="n">
-        <v>9.294172600774881e-08</v>
+        <v>5.099462036257465e-07</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0002256458626618683</v>
+        <v>5.551202800502886e-05</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6608891579087386</v>
+        <v>-0.4209235094197984</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6016951880881166</v>
+        <v>0.1613532579199609</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6366280847133021</v>
+        <v>-0.003134321572912621</v>
       </c>
       <c r="L9" t="n">
-        <v>-1.831819441586976</v>
+        <v>-0.7644225266218928</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1022,16 +1022,16 @@
         <v>6</v>
       </c>
       <c r="P9" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q9" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R9" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S9" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -1039,37 +1039,37 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>167.1095278117359</v>
+        <v>60.59497105588812</v>
       </c>
       <c r="C10" t="n">
-        <v>422.0664289367463</v>
+        <v>76.45782795137993</v>
       </c>
       <c r="D10" t="n">
-        <v>1.170310794846939e-08</v>
+        <v>1.149121571653795e-07</v>
       </c>
       <c r="E10" t="n">
-        <v>7.690078086130262e-05</v>
+        <v>6.379917142087916e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>20.2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.7080912195412539</v>
+        <v>-0.8534502965618045</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3913962043282234</v>
+        <v>0.1053177748483465</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1081369467730106</v>
+        <v>-0.6780462809725518</v>
       </c>
       <c r="L10" t="n">
-        <v>-1.374169181783953</v>
+        <v>-1.085817919044649</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1085,16 +1085,16 @@
         <v>6</v>
       </c>
       <c r="P10" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q10" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R10" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S10" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -1102,37 +1102,37 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>137.6844440959694</v>
+        <v>113.0679133143098</v>
       </c>
       <c r="C11" t="n">
-        <v>721.3083694229708</v>
+        <v>139.3179138220131</v>
       </c>
       <c r="D11" t="n">
-        <v>1.597118869518607e-06</v>
+        <v>3.351971409717524e-07</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0003306132651085924</v>
+        <v>3.408692892635191e-05</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5834086614235989</v>
+        <v>-1.592505821328307</v>
       </c>
       <c r="J11" t="n">
-        <v>1.085507493577788</v>
+        <v>0.1687172749459206</v>
       </c>
       <c r="K11" t="n">
-        <v>1.447653355430835</v>
+        <v>-1.157628419945407</v>
       </c>
       <c r="L11" t="n">
-        <v>-2.848328096243027</v>
+        <v>-1.936818736174224</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1148,16 +1148,16 @@
         <v>6</v>
       </c>
       <c r="P11" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q11" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R11" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S11" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -1165,37 +1165,37 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>113.3181027941573</v>
+        <v>11.27205400185431</v>
       </c>
       <c r="C12" t="n">
-        <v>545.7159345278354</v>
+        <v>54.6161104761841</v>
       </c>
       <c r="D12" t="n">
-        <v>1.996418901503162e-06</v>
+        <v>4.67261037712701e-07</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0009957726393393772</v>
+        <v>0.0009186822681742041</v>
       </c>
       <c r="F12" t="n">
         <v>1.5</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4801614525176158</v>
+        <v>-0.158761323969779</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5835800598934593</v>
+        <v>0.2690064816668448</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8532145868275486</v>
+        <v>0.4985177717006777</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.75085781809621</v>
+        <v>-0.57359202014648</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1211,16 +1211,16 @@
         <v>6</v>
       </c>
       <c r="P12" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q12" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R12" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S12" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -1228,37 +1228,37 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>371.8048293737604</v>
+        <v>173.1511377942893</v>
       </c>
       <c r="C13" t="n">
-        <v>1020.422802952387</v>
+        <v>202.9056214592555</v>
       </c>
       <c r="D13" t="n">
-        <v>6.116148837515563e-07</v>
+        <v>3.535679918832626e-07</v>
       </c>
       <c r="E13" t="n">
-        <v>8.577167533819829e-05</v>
+        <v>7.794000537948378e-05</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.575444192261696</v>
+        <v>2.438748419637877</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9327943936567104</v>
+        <v>0.2162542012879806</v>
       </c>
       <c r="K13" t="n">
-        <v>2.754373872004636</v>
+        <v>2.896068688155756</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.5181215247765916</v>
+        <v>2.076582420231885</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1274,16 +1274,16 @@
         <v>6</v>
       </c>
       <c r="P13" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q13" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R13" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S13" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -1291,37 +1291,37 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>312.2187915177892</v>
+        <v>149.1571831052452</v>
       </c>
       <c r="C14" t="n">
-        <v>955.4289104170815</v>
+        <v>200.2034590032581</v>
       </c>
       <c r="D14" t="n">
-        <v>6.285872925019772e-06</v>
+        <v>1.298592849697249e-07</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0001738214537124591</v>
+        <v>0.0001141033977105737</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.322960981007581</v>
+        <v>2.100805395848523</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7413476793983839</v>
+        <v>0.4126676301330309</v>
       </c>
       <c r="K14" t="n">
-        <v>2.392300310515828</v>
+        <v>3.066735644809744</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.107232078173455</v>
+        <v>1.581966799584604</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1337,16 +1337,16 @@
         <v>6</v>
       </c>
       <c r="P14" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q14" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R14" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S14" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -1354,37 +1354,37 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>221.1335319779845</v>
+        <v>16.08816101157713</v>
       </c>
       <c r="C15" t="n">
-        <v>800.3984014159349</v>
+        <v>46.20168197258094</v>
       </c>
       <c r="D15" t="n">
-        <v>1.357081657427693e-07</v>
+        <v>1.102470699210117e-07</v>
       </c>
       <c r="E15" t="n">
-        <v>8.708008008337563e-05</v>
+        <v>2.764542836585028e-05</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.9370064914321377</v>
+        <v>-0.2265938170644666</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7640584991005395</v>
+        <v>0.1829350760788483</v>
       </c>
       <c r="K15" t="n">
-        <v>1.547865076081845</v>
+        <v>0.06023762753050812</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.703850803161063</v>
+        <v>-0.5529992522565351</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1400,16 +1400,16 @@
         <v>6</v>
       </c>
       <c r="P15" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q15" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R15" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S15" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
@@ -1417,37 +1417,37 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>282.2126377225166</v>
+        <v>34.98000454702314</v>
       </c>
       <c r="C16" t="n">
-        <v>463.8443097953689</v>
+        <v>67.91310378265018</v>
       </c>
       <c r="D16" t="n">
-        <v>4.795816042367586e-07</v>
+        <v>6.891177809497539e-08</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0001505890997915335</v>
+        <v>2.025928857835749e-05</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.195816261536087</v>
+        <v>-0.4926761203806077</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2953236146508512</v>
+        <v>0.1973672810876075</v>
       </c>
       <c r="K16" t="n">
-        <v>0.06812666033179421</v>
+        <v>0.007668948800345361</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.563207366019558</v>
+        <v>-0.7279993651975416</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1463,16 +1463,16 @@
         <v>6</v>
       </c>
       <c r="P16" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q16" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R16" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S16" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
@@ -1480,37 +1480,37 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>241.2655932418675</v>
+        <v>29.69672783169</v>
       </c>
       <c r="C17" t="n">
-        <v>327.7041045496305</v>
+        <v>46.89506405832527</v>
       </c>
       <c r="D17" t="n">
-        <v>3.705383450751864e-08</v>
+        <v>5.96332982519641e-08</v>
       </c>
       <c r="E17" t="n">
-        <v>2.631796651243229e-05</v>
+        <v>1.084793060915154e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.022311835770625</v>
+        <v>-0.418263772277324</v>
       </c>
       <c r="J17" t="n">
-        <v>0.126978767973035</v>
+        <v>0.1045113177463431</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.6999752684258627</v>
+        <v>-0.218106781013298</v>
       </c>
       <c r="L17" t="n">
-        <v>-1.215624684722288</v>
+        <v>-0.6175725400002322</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1526,54 +1526,54 @@
         <v>6</v>
       </c>
       <c r="P17" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q17" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R17" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S17" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0423728813559322</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>101.5306565830459</v>
+        <v>131.9751415846426</v>
       </c>
       <c r="C18" t="n">
-        <v>756.2927456856764</v>
+        <v>151.8890304188575</v>
       </c>
       <c r="D18" t="n">
-        <v>3.183755913366288e-07</v>
+        <v>1.38538492099297e-08</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0001376744068235734</v>
+        <v>3.065363867511082e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07657552137438306</v>
+        <v>-1.858804811051305</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8733322204372399</v>
+        <v>0.1931590549027427</v>
       </c>
       <c r="K18" t="n">
-        <v>2.298324098825523</v>
+        <v>-1.511465277725746</v>
       </c>
       <c r="L18" t="n">
-        <v>-1.499371571412562</v>
+        <v>-2.130798501250309</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1589,16 +1589,16 @@
         <v>6</v>
       </c>
       <c r="P18" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q18" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R18" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S18" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
@@ -1606,37 +1606,37 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>251.1622384740343</v>
+        <v>68.35989859445162</v>
       </c>
       <c r="C19" t="n">
-        <v>397.7352907512647</v>
+        <v>87.25369175031054</v>
       </c>
       <c r="D19" t="n">
-        <v>1.493352208960789e-07</v>
+        <v>1.921029697785804e-07</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0001345453575170904</v>
+        <v>8.40043194921128e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>2.6</v>
+        <v>6.4</v>
       </c>
       <c r="G19" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.064246773195061</v>
+        <v>-0.9628154731612905</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1831256895420362</v>
+        <v>0.1025799923060821</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.4671455728515621</v>
+        <v>-0.6055155484337995</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.370190323275094</v>
+        <v>-1.116514374843479</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1652,16 +1652,16 @@
         <v>6</v>
       </c>
       <c r="P19" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q19" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R19" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S19" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
@@ -1669,37 +1669,37 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>151.8721970406799</v>
+        <v>41.59916746437345</v>
       </c>
       <c r="C20" t="n">
-        <v>659.1054400383124</v>
+        <v>54.74115207335488</v>
       </c>
       <c r="D20" t="n">
-        <v>1.576666571656621e-07</v>
+        <v>1.057584906346768e-07</v>
       </c>
       <c r="E20" t="n">
-        <v>3.830819104130917e-05</v>
+        <v>2.769942170580046e-05</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.6435262586469487</v>
+        <v>-0.5859037671038515</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6800431032778878</v>
+        <v>0.07721370489210269</v>
       </c>
       <c r="K20" t="n">
-        <v>1.665165882289597</v>
+        <v>-0.4181132832205744</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.246200935930744</v>
+        <v>-0.7897321546782605</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1715,16 +1715,16 @@
         <v>6</v>
       </c>
       <c r="P20" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q20" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R20" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S20" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
@@ -1732,37 +1732,37 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>260.3192298823407</v>
+        <v>29.96976653482119</v>
       </c>
       <c r="C21" t="n">
-        <v>515.620742525219</v>
+        <v>48.27108869295681</v>
       </c>
       <c r="D21" t="n">
-        <v>1.996698255308717e-07</v>
+        <v>1.854912355075994e-07</v>
       </c>
       <c r="E21" t="n">
-        <v>3.870291336385068e-05</v>
+        <v>7.53460150750784e-05</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.103047584247206</v>
+        <v>-0.422109387814383</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3643949027168114</v>
+        <v>0.1296639247996532</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2323546025060242</v>
+        <v>-0.1141623572533527</v>
       </c>
       <c r="L21" t="n">
-        <v>-1.552524267262007</v>
+        <v>-0.6900277242327255</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1778,16 +1778,16 @@
         <v>6</v>
       </c>
       <c r="P21" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q21" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R21" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S21" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22">
@@ -1795,37 +1795,37 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>257.911656639443</v>
+        <v>64.32899679057817</v>
       </c>
       <c r="C22" t="n">
-        <v>447.8575513481723</v>
+        <v>76.21712167969592</v>
       </c>
       <c r="D22" t="n">
-        <v>6.683263709339946e-08</v>
+        <v>8.73177014190404e-08</v>
       </c>
       <c r="E22" t="n">
-        <v>3.495018548829484e-05</v>
+        <v>1.950412159279364e-05</v>
       </c>
       <c r="F22" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.092846002709504</v>
+        <v>-0.9060422083180024</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2409907076667598</v>
+        <v>0.07726465984705107</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.2262824183602823</v>
+        <v>-0.7413829140948605</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.335884540222394</v>
+        <v>-1.030354827665157</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -1841,16 +1841,16 @@
         <v>6</v>
       </c>
       <c r="P22" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q22" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R22" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S22" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
@@ -1858,37 +1858,37 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>443.7062305069373</v>
+        <v>38.2246894081829</v>
       </c>
       <c r="C23" t="n">
-        <v>892.9189375592148</v>
+        <v>133.6935470251038</v>
       </c>
       <c r="D23" t="n">
-        <v>1.656877957061794e-06</v>
+        <v>2.845300023719597e-06</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0003098759094738643</v>
+        <v>0.0002815270746015757</v>
       </c>
       <c r="F23" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.880111146215836</v>
+        <v>-0.5383759071575055</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5422876814742116</v>
+        <v>0.8279084798609108</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.02959055831514827</v>
+        <v>0.9323357183524364</v>
       </c>
       <c r="L23" t="n">
-        <v>-2.707449140090523</v>
+        <v>-1.685773148704373</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -1904,54 +1904,54 @@
         <v>6</v>
       </c>
       <c r="P23" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q23" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R23" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S23" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.0423728813559322</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>104.5102966054741</v>
+        <v>25.25774253537462</v>
       </c>
       <c r="C24" t="n">
-        <v>422.285232564137</v>
+        <v>50.88142059421901</v>
       </c>
       <c r="D24" t="n">
-        <v>5.617527585315645e-08</v>
+        <v>1.907044626561165e-06</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0001748802674696468</v>
+        <v>0.0001996548007267238</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="G24" t="n">
-        <v>4.5</v>
+        <v>0.4</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.263288400116973</v>
+        <v>0.3557428526109102</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7117026084849515</v>
+        <v>0.1512304509039223</v>
       </c>
       <c r="K24" t="n">
-        <v>1.311662869741142</v>
+        <v>0.6657361797176099</v>
       </c>
       <c r="L24" t="n">
-        <v>-1.317712053345801</v>
+        <v>-0.08775034448528264</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -1967,54 +1967,54 @@
         <v>6</v>
       </c>
       <c r="P24" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q24" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R24" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S24" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.0423728813559322</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>196.7551793519181</v>
+        <v>32.38868010123467</v>
       </c>
       <c r="C25" t="n">
-        <v>590.2639294798657</v>
+        <v>54.8040345935252</v>
       </c>
       <c r="D25" t="n">
-        <v>2.40047535496696e-08</v>
+        <v>5.763681987701026e-08</v>
       </c>
       <c r="E25" t="n">
-        <v>6.847923941821112e-05</v>
+        <v>7.16512385098636e-06</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>5.2</v>
+        <v>1.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2645250749395723</v>
+        <v>-0.4561785929751363</v>
       </c>
       <c r="J25" t="n">
-        <v>1.240352071787468</v>
+        <v>0.1326533569641453</v>
       </c>
       <c r="K25" t="n">
-        <v>2.135427951513662</v>
+        <v>-0.1804308577727356</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.414586525203112</v>
+        <v>-0.7097474960752926</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2030,16 +2030,16 @@
         <v>6</v>
       </c>
       <c r="P25" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q25" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R25" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S25" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>56.77212805957059</v>
+        <v>26.7888638654832</v>
       </c>
       <c r="C26" t="n">
-        <v>305.0726591591974</v>
+        <v>52.6059807002769</v>
       </c>
       <c r="D26" t="n">
-        <v>2.228191446498458e-07</v>
+        <v>5.728703306327079e-07</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0004214400103969396</v>
+        <v>0.0002871749670945115</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2068,16 +2068,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.2405598646591975</v>
+        <v>-0.3773079417673691</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3099119609246102</v>
+        <v>0.2027192774877902</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4577193549412925</v>
+        <v>0.1333483077972238</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.070372557904462</v>
+        <v>-0.650467411697813</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2093,16 +2093,16 @@
         <v>6</v>
       </c>
       <c r="P26" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q26" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R26" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S26" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
@@ -2110,37 +2110,37 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>399.5197456948385</v>
+        <v>134.1060488814785</v>
       </c>
       <c r="C27" t="n">
-        <v>880.143725826005</v>
+        <v>205.5213440203253</v>
       </c>
       <c r="D27" t="n">
-        <v>1.594166113600892e-06</v>
+        <v>3.283903224453178e-07</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0003974073194226954</v>
+        <v>0.0001139824569443825</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.69288027836796</v>
+        <v>1.888817589879979</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9419359300377236</v>
+        <v>0.4048518091977253</v>
       </c>
       <c r="K27" t="n">
-        <v>3.314017167673192</v>
+        <v>2.479140704544952</v>
       </c>
       <c r="L27" t="n">
-        <v>0.006909511055461763</v>
+        <v>0.956515934903727</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2156,54 +2156,54 @@
         <v>6</v>
       </c>
       <c r="P27" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q27" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R27" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S27" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="B28" t="n">
-        <v>186.967181893863</v>
+        <v>8.095546523356232</v>
       </c>
       <c r="C28" t="n">
-        <v>413.596561306864</v>
+        <v>36.2404471168633</v>
       </c>
       <c r="D28" t="n">
-        <v>2.89952538418575e-07</v>
+        <v>1.322501985419769e-07</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0001645926700650829</v>
+        <v>5.778786451256664e-05</v>
       </c>
       <c r="F28" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.7922338215841651</v>
+        <v>0.07616035789112381</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3584292661689897</v>
+        <v>0.2059069347188144</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1677852331030622</v>
+        <v>0.4599545069176262</v>
       </c>
       <c r="L28" t="n">
-        <v>-1.380405762483212</v>
+        <v>-0.5659850524472706</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2219,16 +2219,16 @@
         <v>6</v>
       </c>
       <c r="P28" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q28" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R28" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S28" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29">
@@ -2236,37 +2236,37 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>292.2766236041413</v>
+        <v>39.10149165118881</v>
       </c>
       <c r="C29" t="n">
-        <v>610.351550896505</v>
+        <v>62.85024324499878</v>
       </c>
       <c r="D29" t="n">
-        <v>1.905428460189281e-06</v>
+        <v>2.915121171107661e-07</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0005082491785999732</v>
+        <v>0.0001901144334458427</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>-1.238460269509073</v>
+        <v>-0.550725234523786</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4264161785931486</v>
+        <v>0.1672642932968037</v>
       </c>
       <c r="K29" t="n">
-        <v>0.02262061551989801</v>
+        <v>-0.2739758812199148</v>
       </c>
       <c r="L29" t="n">
-        <v>-2.160600080746536</v>
+        <v>-0.8703233742202886</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2282,16 +2282,16 @@
         <v>6</v>
       </c>
       <c r="P29" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q29" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R29" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S29" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
@@ -2299,37 +2299,37 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>259.4280624521025</v>
+        <v>35.79214163822552</v>
       </c>
       <c r="C30" t="n">
-        <v>775.4317069856367</v>
+        <v>64.82838203126455</v>
       </c>
       <c r="D30" t="n">
-        <v>5.607830207019818e-07</v>
+        <v>3.33316868306791e-07</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0003528783696930374</v>
+        <v>0.0001165427050265519</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="G30" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>1.099271451068231</v>
+        <v>0.5041146709609228</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7077150090552594</v>
+        <v>0.1807466334426403</v>
       </c>
       <c r="K30" t="n">
-        <v>2.573768680532423</v>
+        <v>0.9573182915560704</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.8175172020424868</v>
+        <v>0.1657596838875867</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -2345,16 +2345,16 @@
         <v>6</v>
       </c>
       <c r="P30" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q30" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R30" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S30" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31">
@@ -2362,37 +2362,37 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>299.5015925920571</v>
+        <v>146.6785613046014</v>
       </c>
       <c r="C31" t="n">
-        <v>812.7307796427481</v>
+        <v>196.8888632118731</v>
       </c>
       <c r="D31" t="n">
-        <v>8.744386762338906e-06</v>
+        <v>1.530828830450214e-06</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0002516183758297137</v>
+        <v>0.000383590732654359</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.269074544881598</v>
+        <v>2.065895229642273</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9017863501545299</v>
+        <v>0.2701967702980828</v>
       </c>
       <c r="K31" t="n">
-        <v>2.999105391508128</v>
+        <v>2.489598208985454</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.7806614626894511</v>
+        <v>1.481778937812237</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2408,16 +2408,16 @@
         <v>6</v>
       </c>
       <c r="P31" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q31" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R31" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S31" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32">
@@ -2425,37 +2425,37 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>233.2506723453343</v>
+        <v>273.683978327085</v>
       </c>
       <c r="C32" t="n">
-        <v>946.157979104688</v>
+        <v>379.2357228118058</v>
       </c>
       <c r="D32" t="n">
-        <v>7.577248525740866e-06</v>
+        <v>7.653160410004444e-06</v>
       </c>
       <c r="E32" t="n">
-        <v>0.000941673121203577</v>
+        <v>0.001183062144113734</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.2</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9883503065480266</v>
+        <v>3.854703920099788</v>
       </c>
       <c r="J32" t="n">
-        <v>1.466233543420896</v>
+        <v>0.993052292512984</v>
       </c>
       <c r="K32" t="n">
-        <v>3.821690183707733</v>
+        <v>5.60484504587697</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.7147415598310894</v>
+        <v>2.506502401418479</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -2471,16 +2471,16 @@
         <v>6</v>
       </c>
       <c r="P32" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q32" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R32" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S32" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33">
@@ -2488,37 +2488,37 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>639.7964585894899</v>
+        <v>11.28325902843256</v>
       </c>
       <c r="C33" t="n">
-        <v>1375.407048591812</v>
+        <v>67.13692977634781</v>
       </c>
       <c r="D33" t="n">
-        <v>1.327816947665687e-06</v>
+        <v>3.545628229725228e-07</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0005884687468926565</v>
+        <v>0.000207137737355601</v>
       </c>
       <c r="F33" t="n">
-        <v>17.8</v>
+        <v>2.2</v>
       </c>
       <c r="G33" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>2.711001943175805</v>
+        <v>0.1589191412455291</v>
       </c>
       <c r="J33" t="n">
-        <v>0.8666491023016124</v>
+        <v>0.3087161355384124</v>
       </c>
       <c r="K33" t="n">
-        <v>3.970458751451502</v>
+        <v>0.786460319944834</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.3304897499583715</v>
+        <v>-0.3489431211625131</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2534,54 +2534,54 @@
         <v>6</v>
       </c>
       <c r="P33" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q33" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R33" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S33" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="B34" t="n">
-        <v>435.2256510715075</v>
+        <v>7.20793432539354</v>
       </c>
       <c r="C34" t="n">
-        <v>927.7613737299071</v>
+        <v>33.89870609414438</v>
       </c>
       <c r="D34" t="n">
-        <v>2.576165905242137e-07</v>
+        <v>6.627418297927333e-08</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0002176156498947957</v>
+        <v>6.519049165956268e-05</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.844176487591134</v>
+        <v>-0.05582108371431441</v>
       </c>
       <c r="J34" t="n">
-        <v>0.7303273432211304</v>
+        <v>0.1832168340751218</v>
       </c>
       <c r="K34" t="n">
-        <v>2.639462877433582</v>
+        <v>0.3285624366732616</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.7138874558198883</v>
+        <v>-0.3504013669310328</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2597,16 +2597,16 @@
         <v>6</v>
       </c>
       <c r="P34" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q34" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R34" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S34" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35">
@@ -2614,37 +2614,37 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>479.0378736006583</v>
+        <v>7.984039002157381</v>
       </c>
       <c r="C35" t="n">
-        <v>1014.973093928411</v>
+        <v>39.17623443418989</v>
       </c>
       <c r="D35" t="n">
-        <v>8.544520836978471e-07</v>
+        <v>4.689066575049353e-07</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0002143849794323865</v>
+        <v>8.64624392169825e-05</v>
       </c>
       <c r="F35" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="G35" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>2.029821498307874</v>
+        <v>0.1124512535515125</v>
       </c>
       <c r="J35" t="n">
-        <v>0.7406800815735949</v>
+        <v>0.2040646702297595</v>
       </c>
       <c r="K35" t="n">
-        <v>3.46410683537942</v>
+        <v>0.5801643207856253</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.6009191036942778</v>
+        <v>-0.1780075989335498</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -2660,16 +2660,16 @@
         <v>6</v>
       </c>
       <c r="P35" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q35" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R35" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S35" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36">
@@ -2677,37 +2677,37 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>299.255181153753</v>
+        <v>71.86369443923208</v>
       </c>
       <c r="C36" t="n">
-        <v>664.9461382917247</v>
+        <v>108.0464052150481</v>
       </c>
       <c r="D36" t="n">
-        <v>6.214993242197125e-07</v>
+        <v>9.026576097083353e-07</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0002660138530164096</v>
+        <v>0.0001457514095938663</v>
       </c>
       <c r="F36" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-1.268030428617598</v>
+        <v>-1.012164710411719</v>
       </c>
       <c r="J36" t="n">
-        <v>0.3749727329699161</v>
+        <v>0.2101523620082174</v>
       </c>
       <c r="K36" t="n">
-        <v>0.06410943905739432</v>
+        <v>-0.6585208068302167</v>
       </c>
       <c r="L36" t="n">
-        <v>-1.90828141269923</v>
+        <v>-1.432941085340781</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2723,54 +2723,54 @@
         <v>6</v>
       </c>
       <c r="P36" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q36" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R36" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S36" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.0423728813559322</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>150.3591186076736</v>
+        <v>195.0622015555531</v>
       </c>
       <c r="C37" t="n">
-        <v>541.7462466784441</v>
+        <v>257.1896837987167</v>
       </c>
       <c r="D37" t="n">
-        <v>4.65343757159907e-07</v>
+        <v>2.490565943311541e-07</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0002624326909074586</v>
+        <v>0.0001075489310848855</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.06098605407680463</v>
+        <v>2.747354951486664</v>
       </c>
       <c r="J37" t="n">
-        <v>1.031400434655683</v>
+        <v>0.4471207730658144</v>
       </c>
       <c r="K37" t="n">
-        <v>2.390426219027202</v>
+        <v>3.687707807244852</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.420693095364198</v>
+        <v>2.053287167196821</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -2786,16 +2786,16 @@
         <v>6</v>
       </c>
       <c r="P37" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q37" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R37" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S37" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38">
@@ -2803,37 +2803,37 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>198.4368792357527</v>
+        <v>63.40291034069406</v>
       </c>
       <c r="C38" t="n">
-        <v>334.410512889528</v>
+        <v>76.86304701259581</v>
       </c>
       <c r="D38" t="n">
-        <v>2.637713558533794e-08</v>
+        <v>4.352126994963349e-07</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0001049019952217192</v>
+        <v>0.0001839819006727244</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.8408342340497998</v>
+        <v>-0.8929987371928745</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1879975717185857</v>
+        <v>0.08077060869472531</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.4553212760722273</v>
+        <v>-0.7286358201820143</v>
       </c>
       <c r="L38" t="n">
-        <v>-1.22345015546029</v>
+        <v>-1.030423763033296</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -2849,54 +2849,54 @@
         <v>6</v>
       </c>
       <c r="P38" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q38" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R38" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S38" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.0423728813559322</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="B39" t="n">
-        <v>217.2405394364775</v>
+        <v>17.76935584428561</v>
       </c>
       <c r="C39" t="n">
-        <v>960.3664179101906</v>
+        <v>86.80289036786202</v>
       </c>
       <c r="D39" t="n">
-        <v>5.552918626467304e-08</v>
+        <v>2.193550932376462e-06</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0008358064006072423</v>
+        <v>0.0003351420126409724</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G39" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0.883241495354027</v>
+        <v>-0.196274230311206</v>
       </c>
       <c r="J39" t="n">
-        <v>1.607586681088536</v>
+        <v>0.4968646947615343</v>
       </c>
       <c r="K39" t="n">
-        <v>5.003257096949595</v>
+        <v>0.5779099865134607</v>
       </c>
       <c r="L39" t="n">
-        <v>-1.64070376973217</v>
+        <v>-1.360214110409651</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -2912,16 +2912,16 @@
         <v>6</v>
       </c>
       <c r="P39" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q39" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R39" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S39" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40">
@@ -2929,37 +2929,37 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>522.8826674070878</v>
+        <v>147.5353064850108</v>
       </c>
       <c r="C40" t="n">
-        <v>889.1100652458642</v>
+        <v>188.6068485655019</v>
       </c>
       <c r="D40" t="n">
-        <v>1.264531524814742e-06</v>
+        <v>1.442122449438763e-06</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0002430499430189105</v>
+        <v>0.0003518684219887991</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="G40" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>2.215604522911389</v>
+        <v>2.077962063169165</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4690882274244091</v>
+        <v>0.3618881114318874</v>
       </c>
       <c r="K40" t="n">
-        <v>3.111344368334838</v>
+        <v>2.576245605935601</v>
       </c>
       <c r="L40" t="n">
-        <v>0.9722466631559198</v>
+        <v>1.348053258477831</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -2975,16 +2975,16 @@
         <v>6</v>
       </c>
       <c r="P40" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q40" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R40" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S40" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41">
@@ -2992,37 +2992,37 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>243.2524730492582</v>
+        <v>106.0352155269162</v>
       </c>
       <c r="C41" t="n">
-        <v>895.278186313268</v>
+        <v>144.3618818412157</v>
       </c>
       <c r="D41" t="n">
-        <v>5.760581740067902e-07</v>
+        <v>1.144528326080966e-06</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0002811529198704212</v>
+        <v>0.0002085430747482451</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.030730818005331</v>
+        <v>-1.49345373981572</v>
       </c>
       <c r="J41" t="n">
-        <v>0.838050953268516</v>
+        <v>0.263725455664634</v>
       </c>
       <c r="K41" t="n">
-        <v>1.490460467241296</v>
+        <v>-1.125405806961768</v>
       </c>
       <c r="L41" t="n">
-        <v>-2.090217376474387</v>
+        <v>-2.111010157138413</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3038,16 +3038,16 @@
         <v>6</v>
       </c>
       <c r="P41" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q41" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R41" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S41" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42">
@@ -3055,37 +3055,37 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>162.1047318459786</v>
+        <v>45.76285524419974</v>
       </c>
       <c r="C42" t="n">
-        <v>348.8057607185294</v>
+        <v>67.1547479025982</v>
       </c>
       <c r="D42" t="n">
-        <v>9.130353786015591e-07</v>
+        <v>1.522977282962168e-06</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0001862770765597655</v>
+        <v>0.0001958770409060599</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.6868844569744853</v>
+        <v>-0.6445472569605599</v>
       </c>
       <c r="J42" t="n">
-        <v>0.26283681380746</v>
+        <v>0.1406478760825886</v>
       </c>
       <c r="K42" t="n">
-        <v>0.03799697117142532</v>
+        <v>-0.3676282231361386</v>
       </c>
       <c r="L42" t="n">
-        <v>-1.446110347528163</v>
+        <v>-0.9664975805282799</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -3101,16 +3101,16 @@
         <v>6</v>
       </c>
       <c r="P42" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q42" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R42" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S42" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43">
@@ -3118,37 +3118,37 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>227.4747770317389</v>
+        <v>101.4475843041377</v>
       </c>
       <c r="C43" t="n">
-        <v>713.0145595999128</v>
+        <v>133.5121075933568</v>
       </c>
       <c r="D43" t="n">
-        <v>1.818206173279018e-06</v>
+        <v>8.017331377172998e-07</v>
       </c>
       <c r="E43" t="n">
-        <v>0.000810388341782236</v>
+        <v>0.000119008333147921</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.9638761738633007</v>
+        <v>-1.428839215551235</v>
       </c>
       <c r="J43" t="n">
-        <v>0.6915625333435091</v>
+        <v>0.2050001802851286</v>
       </c>
       <c r="K43" t="n">
-        <v>1.387475980002899</v>
+        <v>-1.021130419878968</v>
       </c>
       <c r="L43" t="n">
-        <v>-1.634856764454717</v>
+        <v>-1.798803620762602</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -3164,16 +3164,16 @@
         <v>6</v>
       </c>
       <c r="P43" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q43" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R43" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S43" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44">
@@ -3181,37 +3181,37 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>153.6175222002157</v>
+        <v>55.24531602136151</v>
       </c>
       <c r="C44" t="n">
-        <v>476.945357978199</v>
+        <v>78.60956149758486</v>
       </c>
       <c r="D44" t="n">
-        <v>1.095274320379976e-06</v>
+        <v>9.918910001730145e-07</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0009189784994814785</v>
+        <v>7.457260893832312e-05</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.6509217042382018</v>
+        <v>-0.7781030425543876</v>
       </c>
       <c r="J44" t="n">
-        <v>0.3951732627145642</v>
+        <v>0.1396885457531831</v>
       </c>
       <c r="K44" t="n">
-        <v>0.4857039419636345</v>
+        <v>-0.483730781996018</v>
       </c>
       <c r="L44" t="n">
-        <v>-1.392908267135</v>
+        <v>-1.082779101736121</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -3227,16 +3227,16 @@
         <v>6</v>
       </c>
       <c r="P44" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q44" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R44" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S44" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45">
@@ -3244,37 +3244,37 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>147.9026064710027</v>
+        <v>42.30472701919238</v>
       </c>
       <c r="C45" t="n">
-        <v>258.3789572980186</v>
+        <v>58.81139289653353</v>
       </c>
       <c r="D45" t="n">
-        <v>3.345770351109311e-07</v>
+        <v>5.307612660452423e-07</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0003775355089199709</v>
+        <v>9.618258163305899e-05</v>
       </c>
       <c r="F45" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.6267059596228928</v>
+        <v>-0.5958412256224278</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1511932510380914</v>
+        <v>0.1142547535704252</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.2675434425778571</v>
+        <v>-0.4002131545103219</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.9867258543687483</v>
+        <v>-0.8052626590336726</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -3290,16 +3290,16 @@
         <v>6</v>
       </c>
       <c r="P45" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q45" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R45" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S45" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46">
@@ -3307,37 +3307,37 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>261.993041450894</v>
+        <v>68.9640609298513</v>
       </c>
       <c r="C46" t="n">
-        <v>479.4757602947822</v>
+        <v>84.40277166562559</v>
       </c>
       <c r="D46" t="n">
-        <v>2.987274351039319e-07</v>
+        <v>2.992951441477677e-07</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0002697355772951837</v>
+        <v>6.30224222767853e-05</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="G46" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>-1.110140006147856</v>
+        <v>-0.9713248018288914</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2603734221546289</v>
+        <v>0.09863423738155343</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.2423329379938219</v>
+        <v>-0.7352619112648096</v>
       </c>
       <c r="L46" t="n">
-        <v>-1.587988985782948</v>
+        <v>-1.159068512682509</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -3353,54 +3353,54 @@
         <v>6</v>
       </c>
       <c r="P46" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q46" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R46" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S46" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="B47" t="n">
-        <v>372.2230116169584</v>
+        <v>13.38305047879602</v>
       </c>
       <c r="C47" t="n">
-        <v>1146.993419220322</v>
+        <v>96.52778303648816</v>
       </c>
       <c r="D47" t="n">
-        <v>2.113128644271925e-06</v>
+        <v>3.921581855965349e-07</v>
       </c>
       <c r="E47" t="n">
-        <v>0.001316159815498738</v>
+        <v>0.0002345226253948628</v>
       </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1.577216150919316</v>
+        <v>0.1795916148465461</v>
       </c>
       <c r="J47" t="n">
-        <v>1.126827949444458</v>
+        <v>0.4265857850306156</v>
       </c>
       <c r="K47" t="n">
-        <v>3.029495163679468</v>
+        <v>1.389208282187679</v>
       </c>
       <c r="L47" t="n">
-        <v>-1.332987613038151</v>
+        <v>-0.375606105248252</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -3416,16 +3416,16 @@
         <v>6</v>
       </c>
       <c r="P47" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q47" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R47" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S47" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48">
@@ -3433,37 +3433,37 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>605.0280880188269</v>
+        <v>20.23901607332828</v>
       </c>
       <c r="C48" t="n">
-        <v>1144.20214828442</v>
+        <v>76.9713701697743</v>
       </c>
       <c r="D48" t="n">
-        <v>5.583706143941124e-06</v>
+        <v>8.84861736249433e-07</v>
       </c>
       <c r="E48" t="n">
-        <v>0.003316130175781508</v>
+        <v>0.0009821525526552523</v>
       </c>
       <c r="F48" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>4.7</v>
+        <v>0.4</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>2.563678339062826</v>
+        <v>0.2850565644130745</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9221522642780794</v>
+        <v>0.3392945377221641</v>
       </c>
       <c r="K48" t="n">
-        <v>4.179499388278803</v>
+        <v>0.9065532389502126</v>
       </c>
       <c r="L48" t="n">
-        <v>0.7793200752276039</v>
+        <v>-0.4656030972234952</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -3479,16 +3479,16 @@
         <v>6</v>
       </c>
       <c r="P48" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q48" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R48" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S48" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49">
@@ -3496,37 +3496,37 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>559.0000942227052</v>
+        <v>71.94243948072568</v>
       </c>
       <c r="C49" t="n">
-        <v>1401.434491276347</v>
+        <v>110.9329183068499</v>
       </c>
       <c r="D49" t="n">
-        <v>2.223992447688069e-06</v>
+        <v>5.578489407768682e-07</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001908464452749986</v>
+        <v>0.001209408535701709</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>2.368644467045361</v>
+        <v>1.013273795503179</v>
       </c>
       <c r="J49" t="n">
-        <v>1.09554799084188</v>
+        <v>0.2728469765257567</v>
       </c>
       <c r="K49" t="n">
-        <v>3.884334166022422</v>
+        <v>1.534016375621062</v>
       </c>
       <c r="L49" t="n">
-        <v>-1.136361585882585</v>
+        <v>0.3968139318107015</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -3542,16 +3542,16 @@
         <v>6</v>
       </c>
       <c r="P49" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q49" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R49" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S49" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50">
@@ -3559,37 +3559,37 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>232.4744991266855</v>
+        <v>57.59041282948706</v>
       </c>
       <c r="C50" t="n">
-        <v>487.2940076206722</v>
+        <v>95.88193667901314</v>
       </c>
       <c r="D50" t="n">
-        <v>1.223932395218678e-06</v>
+        <v>1.330804376657815e-07</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0005418858671185117</v>
+        <v>0.0002469923650062344</v>
       </c>
       <c r="F50" t="n">
-        <v>2.5</v>
+        <v>6.1</v>
       </c>
       <c r="G50" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.9850614369774808</v>
+        <v>-0.8111325750631981</v>
       </c>
       <c r="J50" t="n">
-        <v>0.3506805820069263</v>
+        <v>0.2408259719966486</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.07850279546057615</v>
+        <v>-0.3298591568371746</v>
       </c>
       <c r="L50" t="n">
-        <v>-1.762553331664583</v>
+        <v>-1.237682408318613</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -3605,16 +3605,16 @@
         <v>6</v>
       </c>
       <c r="P50" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q50" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R50" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S50" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51">
@@ -3622,37 +3622,37 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>306.3713868381507</v>
+        <v>15.05724432246678</v>
       </c>
       <c r="C51" t="n">
-        <v>558.6742730183618</v>
+        <v>53.19991776802337</v>
       </c>
       <c r="D51" t="n">
-        <v>4.184383927151426e-07</v>
+        <v>1.777579151988241e-07</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0004773706153582731</v>
+        <v>0.0001186660296323696</v>
       </c>
       <c r="F51" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="G51" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>-1.298183842534536</v>
+        <v>0.2120738636967153</v>
       </c>
       <c r="J51" t="n">
-        <v>0.2952912771153974</v>
+        <v>0.2780922573915769</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.6132852708162725</v>
+        <v>0.6419269643181864</v>
       </c>
       <c r="L51" t="n">
-        <v>-1.847328614155946</v>
+        <v>-0.3946294808654796</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -3668,16 +3668,16 @@
         <v>6</v>
       </c>
       <c r="P51" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q51" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R51" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S51" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52">
@@ -3685,37 +3685,37 @@
         <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>177.4757783685656</v>
+        <v>57.92067798311968</v>
       </c>
       <c r="C52" t="n">
-        <v>719.2961390485025</v>
+        <v>88.00234897665953</v>
       </c>
       <c r="D52" t="n">
-        <v>4.05441292276375e-07</v>
+        <v>1.881134430016931e-06</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0004229132244026868</v>
+        <v>0.0003394305618443185</v>
       </c>
       <c r="F52" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="G52" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.7520160100362949</v>
+        <v>-0.8157841969453474</v>
       </c>
       <c r="J52" t="n">
-        <v>0.5911563166577931</v>
+        <v>0.2255890489556631</v>
       </c>
       <c r="K52" t="n">
-        <v>1.492177323131729</v>
+        <v>-0.4271688531864741</v>
       </c>
       <c r="L52" t="n">
-        <v>-1.477385633945834</v>
+        <v>-1.279185462052135</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -3731,16 +3731,16 @@
         <v>6</v>
       </c>
       <c r="P52" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q52" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R52" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S52" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53">
@@ -3748,37 +3748,37 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>293.1708213790236</v>
+        <v>167.1104525747073</v>
       </c>
       <c r="C53" t="n">
-        <v>551.9547942167887</v>
+        <v>244.6165082296531</v>
       </c>
       <c r="D53" t="n">
-        <v>5.021022981258563e-08</v>
+        <v>2.078747499913479e-06</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001095708809189761</v>
+        <v>0.0007913509383948336</v>
       </c>
       <c r="F53" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-1.242249243131456</v>
+        <v>2.353668346122638</v>
       </c>
       <c r="J53" t="n">
-        <v>0.3914665237610969</v>
+        <v>0.4447083412699792</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.1661879976148994</v>
+        <v>3.006897018448752</v>
       </c>
       <c r="L53" t="n">
-        <v>-2.25010415858234</v>
+        <v>1.477951443335605</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -3794,16 +3794,16 @@
         <v>6</v>
       </c>
       <c r="P53" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q53" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R53" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S53" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54">
@@ -3811,37 +3811,37 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>244.9805512421922</v>
+        <v>67.10134392269893</v>
       </c>
       <c r="C54" t="n">
-        <v>455.6380353946159</v>
+        <v>87.38160282436752</v>
       </c>
       <c r="D54" t="n">
-        <v>5.00642636625447e-07</v>
+        <v>5.265840615398615e-07</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0002244072402428214</v>
+        <v>0.0002117674907919746</v>
       </c>
       <c r="F54" t="n">
-        <v>10.6</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-1.038053183229628</v>
+        <v>-0.9450893510239288</v>
       </c>
       <c r="J54" t="n">
-        <v>0.2939755406690701</v>
+        <v>0.1657622612357718</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.3299264768640389</v>
+        <v>-0.5773884304663375</v>
       </c>
       <c r="L54" t="n">
-        <v>-1.616233364184188</v>
+        <v>-1.183787145854957</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -3857,16 +3857,16 @@
         <v>6</v>
       </c>
       <c r="P54" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q54" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R54" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S54" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55">
@@ -3874,37 +3874,37 @@
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>202.6734031913086</v>
+        <v>8.622963538910589</v>
       </c>
       <c r="C55" t="n">
-        <v>371.2513600790199</v>
+        <v>30.34267854983194</v>
       </c>
       <c r="D55" t="n">
-        <v>3.401412158861143e-07</v>
+        <v>1.386771740822273e-07</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0003597854686799031</v>
+        <v>0.0001402887244941725</v>
       </c>
       <c r="F55" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.858785606742833</v>
+        <v>-0.1214501906888815</v>
       </c>
       <c r="J55" t="n">
-        <v>0.2285311658322998</v>
+        <v>0.1471787838639773</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.2216736990668371</v>
+        <v>0.1139491616694226</v>
       </c>
       <c r="L55" t="n">
-        <v>-1.265732231405837</v>
+        <v>-0.4330081743140998</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -3920,54 +3920,54 @@
         <v>6</v>
       </c>
       <c r="P55" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q55" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R55" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S55" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.0423728813559322</v>
+        <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>123.07455749262</v>
+        <v>60.66718985596764</v>
       </c>
       <c r="C56" t="n">
-        <v>742.0697942595034</v>
+        <v>84.33352118069971</v>
       </c>
       <c r="D56" t="n">
-        <v>7.718051899723037e-07</v>
+        <v>1.365733745626891e-07</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0004097476941564694</v>
+        <v>5.985161381847316e-05</v>
       </c>
       <c r="F56" t="n">
-        <v>17.9</v>
+        <v>1.2</v>
       </c>
       <c r="G56" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.5099265318657127</v>
+        <v>-0.8544674627601074</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9312523555393267</v>
+        <v>0.1827925268337292</v>
       </c>
       <c r="K56" t="n">
-        <v>1.814758975362918</v>
+        <v>-0.4434241832162973</v>
       </c>
       <c r="L56" t="n">
-        <v>-1.570696961913857</v>
+        <v>-1.156134824020182</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -3983,16 +3983,16 @@
         <v>6</v>
       </c>
       <c r="P56" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q56" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R56" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S56" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57">
@@ -4000,37 +4000,37 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>256.9775279158877</v>
+        <v>44.68805032173055</v>
       </c>
       <c r="C57" t="n">
-        <v>484.5040474550179</v>
+        <v>89.86259608993466</v>
       </c>
       <c r="D57" t="n">
-        <v>1.402734158093209e-06</v>
+        <v>1.924954473907206e-07</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001247389864808339</v>
+        <v>0.000410366739592517</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="G57" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>-1.088887830152067</v>
+        <v>-0.6294091594609939</v>
       </c>
       <c r="J57" t="n">
-        <v>0.3073324859109006</v>
+        <v>0.3021858653139055</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.4775335803119929</v>
+        <v>0.03512052444641819</v>
       </c>
       <c r="L57" t="n">
-        <v>-1.689953663655844</v>
+        <v>-1.07661830009276</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -4046,54 +4046,54 @@
         <v>6</v>
       </c>
       <c r="P57" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q57" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R57" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S57" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="B58" t="n">
-        <v>168.523837312671</v>
+        <v>5.406390026984798</v>
       </c>
       <c r="C58" t="n">
-        <v>564.5947953486029</v>
+        <v>27.59523486518781</v>
       </c>
       <c r="D58" t="n">
-        <v>3.247764283438706e-07</v>
+        <v>5.390208016616071e-07</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0007152680611203717</v>
+        <v>0.0001393913726369662</v>
       </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.7140840564096228</v>
+        <v>0.01137734442339712</v>
       </c>
       <c r="J58" t="n">
-        <v>0.7042916440121969</v>
+        <v>0.1966723974929696</v>
       </c>
       <c r="K58" t="n">
-        <v>0.8110409530082799</v>
+        <v>0.3513739069918312</v>
       </c>
       <c r="L58" t="n">
-        <v>-2.054286687102094</v>
+        <v>-0.4754568505937011</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -4109,16 +4109,16 @@
         <v>6</v>
       </c>
       <c r="P58" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q58" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R58" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S58" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59">
@@ -4126,37 +4126,37 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>295.7621784871507</v>
+        <v>53.4022449130521</v>
       </c>
       <c r="C59" t="n">
-        <v>594.6851712344646</v>
+        <v>105.4446017915994</v>
       </c>
       <c r="D59" t="n">
-        <v>1.090066163448649e-06</v>
+        <v>9.0381054081899e-07</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0006730378965539492</v>
+        <v>0.0003177640314383984</v>
       </c>
       <c r="F59" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-1.253229569860808</v>
+        <v>-0.7521442945500296</v>
       </c>
       <c r="J59" t="n">
-        <v>0.4173494395652162</v>
+        <v>0.304830350219586</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.00410151580621443</v>
+        <v>0.1531939419944717</v>
       </c>
       <c r="L59" t="n">
-        <v>-1.990014272763985</v>
+        <v>-1.186684164323897</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -4172,16 +4172,16 @@
         <v>6</v>
       </c>
       <c r="P59" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q59" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R59" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S59" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60">
@@ -4189,37 +4189,37 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>165.2571526049443</v>
+        <v>47.648010689765</v>
       </c>
       <c r="C60" t="n">
-        <v>493.204150532127</v>
+        <v>66.74562393884125</v>
       </c>
       <c r="D60" t="n">
-        <v>3.22953546839984e-07</v>
+        <v>7.385619606043745e-07</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0003397196326047922</v>
+        <v>0.0002604200650133191</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.7002421720548484</v>
+        <v>-0.6710987421093664</v>
       </c>
       <c r="J60" t="n">
-        <v>0.3552314341746661</v>
+        <v>0.1196583088082278</v>
       </c>
       <c r="K60" t="n">
-        <v>0.5551434325832234</v>
+        <v>-0.4821321701565062</v>
       </c>
       <c r="L60" t="n">
-        <v>-1.185048315228322</v>
+        <v>-0.91735586244719</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -4235,16 +4235,16 @@
         <v>6</v>
       </c>
       <c r="P60" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q60" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R60" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S60" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61">
@@ -4252,37 +4252,37 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>258.0641794292352</v>
+        <v>36.96563397994652</v>
       </c>
       <c r="C61" t="n">
-        <v>565.8256338796024</v>
+        <v>90.35278605777643</v>
       </c>
       <c r="D61" t="n">
-        <v>2.164797901447218e-07</v>
+        <v>3.999723694066985e-07</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0004781294252874334</v>
+        <v>0.0002998974637742461</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G61" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>-1.093492285717098</v>
+        <v>-0.5206427321119226</v>
       </c>
       <c r="J61" t="n">
-        <v>0.5504365114600817</v>
+        <v>0.3485287666797973</v>
       </c>
       <c r="K61" t="n">
-        <v>0.2050638470491304</v>
+        <v>0.0711288716278682</v>
       </c>
       <c r="L61" t="n">
-        <v>-2.202488990107414</v>
+        <v>-1.014346622564392</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -4298,16 +4298,16 @@
         <v>6</v>
       </c>
       <c r="P61" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="Q61" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="R61" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="S61" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
